--- a/RootCauseAnalyzer/processed_defects.xlsx
+++ b/RootCauseAnalyzer/processed_defects.xlsx
@@ -575,7 +575,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>The most probable root cause is a compatibility or configuration issue between the Alaska Payments application and the Citrix environment, possibly triggered by an overly sensitive antivirus software. Refreshing the application likely resets the session or bypasses the temporary glitch causing the black screen.</t>
+          <t>The most probable root cause is an issue with the Alaska Payments application interface or compatibility within the Citrix environment, potentially triggered by recent updates or changes in software configurations, which was temporarily resolved by refreshing the application but may need a permanent fix for underlying compatibility or update issues.</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>The most probable root cause of the iCargo system running extremely slow was a problem within the iCargo network infrastructure, possibly due to network congestion or malfunctioning network hardware/software.</t>
+          <t>The most probable root cause is a network performance issue or congestion within the iCargo system's network infrastructure, leading to slow system response times and subsequent backups.</t>
         </is>
       </c>
     </row>

--- a/RootCauseAnalyzer/processed_defects.xlsx
+++ b/RootCauseAnalyzer/processed_defects.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,26 +512,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2402139</v>
+        <v>2290517</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>iCargo Payment Portal</t>
+          <t>Log Aggregation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>User trying to use Alaska Payments from Citrix but gets a black screen now earlier was getting an error about a virus</t>
+          <t>Fltops Application Log : Please configure sumo logic on new DNA servers.     PROD Servers :  gqprfltopsdna1 (10.23.20.70)  igqprfltopsdna2 (10.23.20.74)  se4prfltopsdna1 (10.33.20.70)  se4prfltopsdna2 (10.33.20.74)     Category Name : fltops_application_log_prod     QA Servers  seaqafltopsdna1.aagqa.net   seaqafltopsdna2.aagqa.net      Category name : fltops_application_log_qa     Reference : Fogs 2012 PROD DNA form (tukv3dna09-16)     Please let me know if you have any questions</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITS Airport Operations</t>
+          <t>ITS Systems Operations</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Enterprise Applications</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,31 +541,31 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Self Reported</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Advice &amp; Guidance</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>User was able to take cargo payments after guidance on refreshing application if it shows a blank screen.</t>
+          <t>Sumologic installed</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>User trying to use Alaska Payments from Citrix but gets a black screen now earlier was getting an error about a virus</t>
+          <t>Fltops Application Log : Please configure sumo logic on new DNA servers</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -575,78 +575,3165 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>The most probable root cause is an issue with the Alaska Payments application interface or compatibility within the Citrix environment, potentially triggered by recent updates or changes in software configurations, which was temporarily resolved by refreshing the application but may need a permanent fix for underlying compatibility or update issues.</t>
+          <t>The most probable root cause is that the Sumo Logic monitoring tool was not initially configured on the new DNA servers, which hindered the proper logging and monitoring of these servers in the production and QA environments.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2420660</v>
+        <v>2290518</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>iCargo Application Software</t>
+          <t>AIOps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>iCargo system running extremely slow, causing heavy backups.</t>
+          <t>##CONFIGITEM: bwiff-tb1-obm-1||  ##SEVERITY: 3||  ##EventID: WAN Downstream Device "bwiff-tb1-obm-1" is Down  ##SERVICE: WAN||  ##CATTYPE: Device Down||  ##SUBCATEGORY: Submit Incident||  ##OWNEDBYTEAM: ITS Production Operations||     Team,  A WAN site downstream device is down: bwiff-tb1-obm-1   Please create a Cherwell ticket and update the node in Solarwinds with the ticket number. Assign the ticket to ITS Production Operations.     Please engage the oncall resource if this is a Sev 1/Sev 2.     Thank you.     ALERT TRIGGER TIME: Friday, March 1, 2024 12:00 AM   DEVICE: bwiff-tb1-obm-1  CURRENT STATUS: Down  IP ADDRESS: 10.48.85.4  MODEL: Opengear IM72xx  DEVICE ROLE: OBM   SITE CODE: BWIFF  Tier: Tier 3  DEVICE URL: https://solarwinds.alaskaair.com:443/Orion/NetPerfMon/NodeDetails.aspx?NetObject=N:2171  ALERT URL: https://solarwinds.alaskaair.com:443/Orion/View.aspx?NetObject=AAT:31490  Alert Name: AlarmsOne WAN downstream device Down     ===== Reference =====  Trans ID: 490021  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a1d55137b2  Type: /Status/Solarwinds  Event Priority: 5  Config Item: bwiff-tb1-obm-1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITS Airport Operations</t>
+          <t>ITS Production Operations</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>490021 - ##CONFIGITEM: bwiff-tb1-obm-1||  ##SEVERITY: 3||  ##EventID: WAN Downstream Device "bwiff-tb1-obm-1" is Down  ##SERVICE: WAN||  ##C</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2290519</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IWS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Value GO_TTCLOADER.GO_TTCLOADER1 is running long|Job Number:318231|Job has been running for over an hour, please investigate. Action: Please check the job log to see if the job is actively running or if action is needed. Note, some jobs run long for many valid reasons. Refer to the job doc on SysDocs SharePoint site     ===== Reference =====  Trans ID: 490020  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a1d01cf8f2  Type: /Integration/TWS  Event Priority: 4  Config Item: seavvtws12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Batch/Job Processing</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Working as Designed</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Job ran successfully.</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>490020 - Value GO_TTCLOADER.GO_TTCLOADER1 is running long</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2290520</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>##CONFIGITEM: bwiff-mdf-fw-1b||  ##SEVERITY: 3||  ##EventID: WAN Downstream Device "bwiff-mdf-fw-1b" is Down  ##SERVICE: WAN||  ##CATTYPE: Device Down||  ##SUBCATEGORY: Submit Incident||  ##OWNEDBYTEAM: ITS Production Operations||     Team,  A WAN site downstream device is down: bwiff-mdf-fw-1b   Please create a Cherwell ticket and update the node in Solarwinds with the ticket number. Assign the ticket to ITS Production Operations.     Please engage the oncall resource if this is a Sev 1/Sev 2.     Thank you.     ALERT TRIGGER TIME: Friday, March 1, 2024 12:00 AM   DEVICE: bwiff-mdf-fw-1b  CURRENT STATUS: Down  IP ADDRESS: 10.48.85.21  MODEL: Fortigate fgt81F  DEVICE ROLE: Firewall   SITE CODE: BWIFF  Tier: Tier 3  DEVICE URL: https://solarwinds.alaskaair.com:443/Orion/NetPerfMon/NodeDetails.aspx?NetObject=N:5182  ALERT URL: https://solarwinds.alaskaair.com:443/Orion/View.aspx?NetObject=AAT:89190  Alert Name: AlarmsOne WAN downstream device Down     ===== Reference =====  Trans ID: 490022  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a1d55c5b44  Type: /Status/Solarwinds  Event Priority: 5  Config Item: bwiff-mdf-fw-1b</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>490022 - ##CONFIGITEM: bwiff-mdf-fw-1b||  ##SEVERITY: 3||  ##EventID: WAN Downstream Device "bwiff-mdf-fw-1b" is Down  ##SERVICE: WAN||  ##C</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2290521</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>##CONFIGITEM: bwiff-tb1-pdu-1||  ##SEVERITY: 3||  ##EventID: WAN Downstream Device "bwiff-tb1-pdu-1" is Down  ##SERVICE: WAN||  ##CATTYPE: Device Down||  ##SUBCATEGORY: Submit Incident||  ##OWNEDBYTEAM: ITS Production Operations||     Team,  A WAN site downstream device is down: bwiff-tb1-pdu-1   Please create a Cherwell ticket and update the node in Solarwinds with the ticket number. Assign the ticket to ITS Production Operations.     Please engage the oncall resource if this is a Sev 1/Sev 2.     Thank you.     ALERT TRIGGER TIME: Friday, March 1, 2024 12:01 AM   DEVICE: bwiff-tb1-pdu-1  CURRENT STATUS: Down  IP ADDRESS: 10.48.85.5  MODEL: Smart-UPS 9605  DEVICE ROLE: PDU   SITE CODE: BWIFF  Tier: Tier 3  DEVICE URL: https://solarwinds.alaskaair.com:443/Orion/NetPerfMon/NodeDetails.aspx?NetObject=N:2172  ALERT URL: https://solarwinds.alaskaair.com:443/Orion/View.aspx?NetObject=AAT:31486  Alert Name: AlarmsOne WAN downstream device Down     ===== Reference =====  Trans ID: 490024  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a1ea295dd9  Type: /Status/Solarwinds  Event Priority: 5  Config Item: bwiff-tb1-pdu-1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>490024 - ##CONFIGITEM: bwiff-tb1-pdu-1||  ##SEVERITY: 3||  ##EventID: WAN Downstream Device "bwiff-tb1-pdu-1" is Down  ##SERVICE: WAN||  ##C</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2290522</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PAGE CHECK FAILED: cannot go to 'http://www.alaskasworld.com/fltops/techpubs/default.asp'     ===== Reference =====  Trans ID: 490023  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a1e87aea7a  Type: /Integration/AppManager/ProdOps  Event Priority: 5  Config Item: SEAVVW3E1_http___www.alaskasworld.com_fltops_techpubs_default.asp</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>490023 - URL down. URL SEAVVW3E1_http___www.alaskasworld.com_fltops_techpubs_default.asp is not available</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2290523</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>##CONFIGITEM: bwitr-mdf-fw-1b||  ##SEVERITY: 3||  ##EventID: WAN Downstream Device "bwitr-mdf-fw-1b" is Down  ##SERVICE: WAN||  ##CATTYPE: Device Down||  ##SUBCATEGORY: Submit Incident||  ##OWNEDBYTEAM: ITS Production Operations||     Team,  A WAN site downstream device is down: bwitr-mdf-fw-1b   Please create a Cherwell ticket and update the node in Solarwinds with the ticket number. Assign the ticket to ITS Production Operations.     Please engage the oncall resource if this is a Sev 1/Sev 2.     Thank you.     ALERT TRIGGER TIME: Friday, March 1, 2024 12:01 AM   DEVICE: bwitr-mdf-fw-1b  CURRENT STATUS: Down  IP ADDRESS: 10.48.77.21  MODEL: Fortigate fgt81F  DEVICE ROLE: Firewall   SITE CODE: BWITR  Tier: Tier 3  DEVICE URL: https://solarwinds.alaskaair.com:443/Orion/NetPerfMon/NodeDetails.aspx?NetObject=N:5183  ALERT URL: https://solarwinds.alaskaair.com:443/Orion/View.aspx?NetObject=AAT:85643  Alert Name: AlarmsOne WAN downstream device Down     ===== Reference =====  Trans ID: 490025  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a1ed384b96  Type: /Status/Solarwinds  Event Priority: 5  Config Item: bwitr-mdf-fw-1b</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>490025 - ##CONFIGITEM: bwitr-mdf-fw-1b||  ##SEVERITY: 3||  ##EventID: WAN Downstream Device "bwitr-mdf-fw-1b" is Down  ##SERVICE: WAN||  ##C</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2290524</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PAGE CHECK FAILED: cannot go to 'http://www.alaskasworld.com/inflight/website.asp'     ===== Reference =====  Trans ID: 490026  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a1eee5fba5  Type: /Integration/AppManager/ProdOps  Event Priority: 5  Config Item: http___www.alaskasworld.com_inflight_website.asp</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>490026 - URL down. URL http___www.alaskasworld.com_inflight_website.asp is not available</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2290525</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>seav3web18 is DOWN!     ===== Reference =====  Trans ID: 490027  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a203c379cd  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: seav3web18</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>490027 - seav3web18 is DOWN!</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2290526</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PROGS NWS and UKMO is not updated     ===== Reference =====  Trans ID: 490029  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a27c094550  Type: /Status/SOAP  Event Priority: 3  Config Item: se4przenosccm01.alaskaair.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>490029 - PROGS NWS and UKMO is not updated</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>The most probable root cause is that the PROGS NWS and UKMO update failure was due to an external system event or communication issue with se4przenosccm01.alaskaair.com, which was successfully identified and resolved, clearing the event that prevented the updates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2290527</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>High Memory Utilization, Current Usage is 90.6%     ===== Reference =====  Trans ID: 490034  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2cd285467  Type: /Integration/AppManager/InfraOps  Event Priority: 4  Config Item: tukvvbialtx04</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>490034 - High Memory Utilization, Current Usage is 90.6%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2290528</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PAGE CHECK FAILED: cannot go to 'http://crewtracking.alaskaair.com/'     ===== Reference =====  Trans ID: 490035  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2da177cc8  Type: /Integration/AppManager/ProdOps  Event Priority: 5  Config Item: http___crewtracking.alaskaair.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>490035 - URL down. URL http___crewtracking.alaskaair.com is not available</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2290529</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Service Alert: EMAILCNX has changed to Stopped state     ===== Reference =====  Trans ID: 490037  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e5188fd4  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVACARSAPP03</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ITS Ops Automation</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>The alert is cleared we have closed the ticket.</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>490037 - Service Alert: AS Email Connector (EMAILCNX) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2290530</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PAGE CHECK FAILED: cannot go to 'https://aagpeople.com'     ===== Reference =====  Trans ID: 490036  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e30679a7  Type: /Integration/AppManager/ProdOps  Event Priority: 5  Config Item: https___aagpeople.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>490036 - URL down. URL https___aagpeople.com is not available</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2290531</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Service Alert: FILECNX has changed to Stopped state     ===== Reference =====  Trans ID: 490039  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e5188fd6  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVACARSAPP03</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ITS Ops Automation</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>We have closed the SR 2290561 and The alert is cleared we have closed the ticket.</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>490039 - Service Alert: AS File/Printer Connector (FILECNX) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2290532</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Service Alert: DBCNX has changed to Stopped state     ===== Reference =====  Trans ID: 490040  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e5188fd7  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVACARSAPP03</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ITS Ops Automation</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Data Center Hardware</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>We have closed the SR 2290561 and The alert is cleared we have closed the ticket.</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>490040 - Service Alert: AS Database Connector (DBCNX) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2290533</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Service Alert: FTPCNX has changed to Stopped state     ===== Reference =====  Trans ID: 490038  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e5188fd5  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVACARSAPP03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ITS Ops Automation</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>We have closed the SR 2290561 and The alert is cleared we have closed the ticket.</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>490038 - Service Alert: AS FTP Connector (FTPCNX) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2290534</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Service Alert: MSGPROC has changed to Stopped state     ===== Reference =====  Trans ID: 490041  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e51b4ef8  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVACARSAPP03</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ITS Ops Automation</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>We have closed the SR 2290561 and The alert is cleared we have closed the ticket.</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>490041 - Service Alert: AS Message Processor (MSGPROC) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>The most probable root cause is that the MSGPROC (Message Processor) service on the server SEAVVACARSAPP03 unexpectedly transitioned to a Stopped state, which could have been due to an issue within the application causing it to crash or a configuration problem leading to its inability to remain operational. The resolution involved addressing the specific cause, which cleared the alert, allowing the service ticket SR 2290561 to be closed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2290535</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Windows Server</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Service Alert: MQSCNX has changed to Stopped state     ===== Reference =====  Trans ID: 490042  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e51cfca9  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVACARSAPP03</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ITS Ops Automation</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Data Center Hardware</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>We have closed the SR 2290561 and The alert is cleared we have closed the ticket.</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>490042 - Service Alert: AS IBM MQ Connector (MQSCNX) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2290536</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Service Alert: RELAY has changed to Stopped state     ===== Reference =====  Trans ID: 490043  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e51e0e1a  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVACARSAPP03</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>490043 - Service Alert: AS Communication Relay (RELAY) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2290537</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Service Alert: SERVICE has changed to Stopped state     ===== Reference =====  Trans ID: 490044  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a2e520f44b  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVACARSAPP03</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ITS Ops Automation</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>We have closed the SR 2290561 and The alert is cleared we have closed the ticket.</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>11</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>490044 - Service Alert: AS Base Service (SERVICE) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2290539</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PAGE CHECK FAILED: cannot go to 'https://supplier.alaskaair.com'     ===== Reference =====  Trans ID: 490045  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a336187ea0  Type: /Integration/AppManager/ProdOps  Event Priority: 5  Config Item: https___supplier.alaskaair.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>490045 - URL down. URL https___supplier.alaskaair.com is not available</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2290540</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>From: (Account Request Web Forms) account.requests-ICS@alaskaair.com  Date/Time Received: 2024-03-01T00:11:38     ****FORM**** type = Vendor_Contractor ****EMPLOYEE**** company = Alaska first_name = Robert last_name = Berko jobtitle = Ramp Agent id_number = 5120985 ****VENDOR**** company_name = McGee Air Services ****REQUESTOR**** first_name = Jonathan last_name = Dato jobtitle = Management comail = null email = jonathan.dato@alaskaair.com ****APPROVER**** sameAsRequestor = yes ****SPONSOR**** first_name = Kevin last_name = Kaufman ****SYSTEM**** ContractorType = Continual ****TEMPLATE**** request = checkforExistingTemplate ****SYSTEM**** access_reference_name = Wilson Tan - 5122747 access_reference_jobtitle = Ramp Agent Other = Add OtherSystem = Office 365 License GSE POI Power Apps ****GENERAL**** comments = Apply Same for the following: Rianna Maifea - 5056829 Sally Munoz - 5101754 Trisia Keraskes - 5087610 Mark Anthony Siangco - 5131038 Joseph Tate - 5133101</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ITS Service Desk Accounts</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Account Administration</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Portal</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Access granted to users per  Ramp Agent (AS) template.</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Vendor_ContractorRequest for Berko, Robert</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>The most probable root cause is that the system or process handling account request forms did not initially recognize or properly process the instruction to "Apply Same for the following" additional users listed in the comments section, which indicates a potential issue with parsing or handling instructions within the comment section of the form. This oversight required manual intervention to grant access to the additional users as per the Ramp Agent template.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2290541</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SQL Server</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>System Event: SQL Server Alert System: 'Backup Logs for All DBs (Job) Failed' occurred on \\seaprcspotsql1a     DATE/TIME: 3/1/2024 12:11:51 AM DESCRIPTION: Error: 50000 Severity: 10 State: 1 Backup Logs for All DBs (Job) Failed COMMENT: ##CONFIGITEM: SEAPRCSPOTSQL1A\MSSQLSERVER|| ##SEVERITY: 3|| ##EVENTID: SEAPRCSPOTSQL1A_SQLBKPLOG|| JOB RUN: (None)     CI: SEAPRCSPOTSQL1A\MSSQLSERVER  Primary Support Team:</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ITS Database Platform</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Database</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Job Failure</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Transient issue and has been resolved.</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">System Event: SQL Server Alert System: 'Backup Logs for All DBs (Job) Failed' occurred on \\seaprcspotsql1a    DATE/TIME: 3/1/2024 12:11:51 </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2290542</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PAGE CHECK FAILED: cannot go to 'http://alaskaair.webservice.alaskaair.com/membershipsolar/member.asmx?op=Version'     ===== Reference =====  Trans ID: 490048  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a3868af9fd  Type: /Integration/AppManager/ProdOps  Event Priority: 5  Config Item: http___alaskaair.webservice.alaskaair.com_membershipsolar_member.asmx_op_Version</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>490048 - URL down. URL http___alaskaair.webservice.alaskaair.com_membershipsolar_member.asmx_op_Version is not available</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2290543</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RSA Mobile</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bag scanner# SJC-ASBAG-42005  While scanning bags onto the carousel, the scanner stopped working and an Alert popped up reading...  (100) installScannerApp  (100) Plugin not available! Plug:com.airclic.j2me.microemu.AndroidScqannerPlugin@6031d1, State: STATE_PAUSED, caller: null  Scanner was reset. Turned off for a minute and turned off again, also battery was taken out and power button held for 15seconds.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ITS Service Desk Mobile</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Enterprise Applications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Portal</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Software Malfunction</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>User confirmed on e-mail that the scanner is working.</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Bag scanner# SJC-ASBAG-42005  While scanning bags onto the carousel, the scanner stopped working and an Alert popped up reading...  (100) in</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>The most probable root cause of the scanner issue was due to a missing or improperly installed plugin (com.airclic.j2me.microemu.AndroidScannerPlugin) required for the scanner application to function correctly, leading to a malfunction. The reset and power cycle procedures likely triggered a system reload or reinitialization that resolved the plugin issue temporarily.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2290544</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>High Memory Utilization, Current Usage is 96.9%     ===== Reference =====  Trans ID: 490052  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a3f9b9d315  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: SEAVVBISQL04</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>490052 - High Memory Utilization, Current Usage is 96.9%</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2290545</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Azure Monitor Alert: Affected Resource:crew-prod-appinsights Monitoring Rule:alertrules_request_rate_zero-Crew-prod-appinsights|Notes: Metric:requests/rate,Current Value:0     ===== Reference =====  Trans ID: 490055  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a40863078e  Type: /Integration/AppInsights  Event Priority: 5  Config Item: crew-prod-appinsights</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>490055 - Azure Monitor Alert: Affected Resource:crew-prod-appinsights Monitoring Rule:alertrules_request_rate_zero-Crew-prod-appinsights</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2290546</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Azure Monitor Alert: Affected Resource:revenue-prod-appinsights Monitoring Rule:alertrules_FailedRequests_greater_than_expected-Revenue-prod-appinsights|Notes: Metric:requests/failed,Current Value:50     ===== Reference =====  Trans ID: 490056  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a40eb86de8  Type: /Integration/AppInsights  Event Priority: 4  Config Item: revenue-prod-appinsights</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>490056 - Azure Monitor Alert: Affected Resource:revenue-prod-appinsights Monitoring Rule:alertrules_FailedRequests_greater_than_expected-Rev</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2290548</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>From: (Account Request Web Forms) account.requests-ICS@alaskaair.com  Date/Time Received: 2024-03-01T00:20:19     ****FORM**** type = Vendor_Contractor ****EMPLOYEE**** company = Alaska first_name = Jonathan last_name = Santiago jobtitle = Lead Ramp Agent id_number = 5123033 ****VENDOR**** company_name = McGee Air Services ****REQUESTOR**** first_name = Jonathan last_name = Dato jobtitle = Management comail = null email = jonathan.dato@alaskaair.com ****APPROVER**** sameAsRequestor = yes ****SPONSOR**** first_name = Kevin last_name = Kaufman ****SYSTEM**** ContractorType = Continual ****TEMPLATE**** request = checkforExistingTemplate ****SYSTEM**** access_reference_name = Lollie Loeak - 5084104 access_reference_jobtitle = Lead Ramp Agent outlook = Add Smart4Aviation = Add Smart4Aviation_AddHomeStations = PAE Smart4AviationPlansdTool = Add Smart4AviationRSAMobile = Add ****GENERAL**** comments = Apply same for the following: Nellie Quiroz - 5080369</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ITS Service Desk Accounts</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Account Administration</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Portal</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Access granted to users per  Ramp Agent (AS) template.</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Vendor_ContractorRequest for Santiago, Jonathan</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>The most probable root cause is a miscommunication or misunderstanding regarding the specific access rights or template requirements for new vendor contractors, resulting in incorrectly applied permissions based on the Ramp Agent (AS) template instead of the correct template for vendor contractors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2290551</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>boirrfile1v is DOWN!     ===== Reference =====  Trans ID: 490058  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a4d1a9ac29  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: boirrfile1v</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>490058 - boirrfile1v is DOWN!</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2290552</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>File not available D:\Airgroup\Log\Fire\GreenlightAuthN\AppErr on seav3lms02     ===== Reference =====  Trans ID: 490059  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a4eb5182a5  Type: /Status/FileDirectory  Event Priority: 4  Config Item: seav3lms02</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>490059 - File not available D:\Airgroup\Log\Fire\GreenlightAuthN\AppErr on seav3lms02</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2290553</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>File not available D:\Airgroup\Log\Fire\GreenlightAuthN\AppErr on seav3lms03     ===== Reference =====  Trans ID: 490061  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a4ebbfadc8  Type: /Status/FileDirectory  Event Priority: 4  Config Item: seav3lms03</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>490061 - File not available D:\Airgroup\Log\Fire\GreenlightAuthN\AppErr on seav3lms03</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2290555</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>High Memory Utilization, Current Usage is 93.1%     ===== Reference =====  Trans ID: 490060  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a4e5c4004f  Type: /Integration/AppManager/InfraOps  Event Priority: 4  Config Item: tukvvbialtx04</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>490060 - High Memory Utilization, Current Usage is 93.1%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2290554</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PAGE CHECK FAILED: cannot go to 'http://alaskaair.webservice.alaskaair.com/membershipsolar/member.asmx?op=Version'     ===== Reference =====  Trans ID: 490062  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a4efa23f42  Type: /Integration/AppManager/ProdOps  Event Priority: 5  Config Item: http___alaskaair.webservice.alaskaair.com_membershipsolar_member.asmx_op_Version</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>490062 - URL down. URL http___alaskaair.webservice.alaskaair.com_membershipsolar_member.asmx_op_Version is not available</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2290556</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>File not available D:\Airgroup\Log\Fire\GreenlightAuthN\AppErr on seav3lms01     ===== Reference =====  Trans ID: 490063  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a4f793c94e  Type: /Status/FileDirectory  Event Priority: 4  Config Item: seav3lms01</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>490063 - File not available D:\Airgroup\Log\Fire\GreenlightAuthN\AppErr on seav3lms01</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2290557</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>From: (Account Request Web Forms) account.requests-ICS@alaskaair.com  Date/Time Received: 2024-03-01T00:23:19     ****FORM**** type = Vendor_Contractor ****EMPLOYEE**** company = Alaska first_name = Jerwin-Liam last_name = Castillo jobtitle = Lead Ramp Agent id_number = 5128776 ****VENDOR**** company_name = McGee Air Services ****REQUESTOR**** first_name = Jonathan last_name = Dato jobtitle = Management comail = null email = jonathan.dato@alaskaair.com ****APPROVER**** sameAsRequestor = yes ****SPONSOR**** first_name = Kevin last_name = Kaufman ****SYSTEM**** ContractorType = Continual ****TEMPLATE**** request = checkforExistingTemplate ****SYSTEM**** access_reference_name = Chuso Lometo - 5109216 access_reference_jobtitle = Lead Ramp Agent outlook = Add Smart4Aviation = Add Smart4Aviation_AddHomeStations = SEA Smart4AviationPlansdTool = Add Smart4AviationRSAMobile = Add ****GENERAL**** comments = Use Ramp Agent-Ground Service Agent (AS or QX) Template and apply same for the following: Lamaga Moi - 5128754 Nicolas Joyal - 5098300</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ITS Service Desk Accounts</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Account Administration</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Portal</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Access granted to users per  Ramp Agent (AS) template.</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Vendor_ContractorRequest for Castillo, Jerwin-Liam</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>The most probable root cause of the issue seems to be a misunderstanding or misconfiguration of permissions or access levels required for the specific roles of Vendor_Contractor and Lead Ramp Agent. The request to use the Ramp Agent-Ground Service Agent template for multiple individuals, including those with different roles or from a vendor company (McGee Air Services), indicates a potential oversight in matching the correct access permissions or template to the roles and affiliations of the individuals involved. The process might not have considered the specific differences or requirements for vendor contractors compared to Alaska Airlines employees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2290558</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>File not available d:\Airgroup\Log\FOGS\VisopsScheduleLoader\AppErr on tukvvtws12     ===== Reference =====  Trans ID: 490065  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a5208a3ce7  Type: /Status/FileDirectory  Event Priority: 4  Config Item: tukvvtws12</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>490065 - File not available d:\Airgroup\Log\FOGS\VisopsScheduleLoader\AppErr on tukvvtws12</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2290559</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Cloud Services</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Azure Monitor Alert: Affected Resource:employee-prod-appinsights Monitoring Rule:alertrules_reques_rate_zero-Employee-prod-appinsights|Notes: Metric:requests/rate,Current Value:0  ===== Reference =====  Trans ID: 490066  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a533321540  Type: /Integration/AppInsights  Event Priority: 5  Config Item: employee-prod-appinsights</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ITS Data Services DAP</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Enterprise Applications</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>auto resolved</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>11</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>490066 - Azure Monitor Alert: Affected Resource:employee-prod-appinsights Monitoring Rule:alertrules_reques_rate_zero-Employee-prod-appinsig</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2290560</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PAGE CHECK FAILED: cannot go to 'http://172.20.80.129/'     ===== Reference =====  Trans ID: 490067  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a5a3b83c82  Type: /Integration/AppManager/ProdOps  Event Priority: 5  Config Item: seav3web55_https___172.20.80.129</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>490067 - URL down. URL seav3web55_https___172.20.80.129 is not available</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2290561</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>These also need to be switched over to the TUK server along with the other services:       Ref  CR : 88534      Tukwila     TUKVVACARSAPP03  McGee@IGQ   SEAVVACARSAPP03  AS Base Service  (BATAPCNX)  AS BATAP Connector   AS Communication Relay (RELAY)  AS Database Connector  (DBCNX)  AS Email Connector  AS File/Printer Connector (FILECNX)  AS FTP Connector   AS HTTP Connector  AS IBM MQ Connector (MQSCNX)  AS Message Processor (MSGPROC)  AS Monitoring Service  AS TCP Connector      these services need to be switched from SEA server to TUK server      Monitoring should be disabled on SEA server for the above services and enabled for TUK server.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ITS Ops Automation</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>IM / Chat</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>As requested we have disabled on SEA server for the below services and enabled for TUK server.     AS Base Service  (BATAPCNX)  AS BATAP Connector   AS Communication Relay (RELAY)  AS Database Connector  (DBCNX)  AS Email Connector  AS File/Printer Connector (FILECNX)  AS FTP Connector  AS HTTP Connector  AS IBM MQ Connector (MQSCNX)  AS Message Processor (MSGPROC)  AS Monitoring Service  AS TCP Connector</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>[12:33 AM] Mark Acheson       Tukwila     TUKVVACARSAPP03  McGee@IGQ   SEAVVACARSAPP03  AS Base Service  (BATAPCNX)  AS BATAP Connector   AS</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>The most probable root cause of this defect is a configuration or deployment oversight, where specific services were not initially migrated from the SEA server to the TUK server as required. This necessitated the subsequent switch and adjustment in monitoring configurations to align with the new server requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2290562</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>High Memory Utilization, Current Usage is 90.7%     ===== Reference =====  Trans ID: 490082  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a6fe5e4da8  Type: /Integration/AppManager/InfraOps  Event Priority: 4  Config Item: tukvvbialtx04</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>490082 - High Memory Utilization, Current Usage is 90.7%</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2290563</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>IWS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Value ME_TRAXTOVISMTX.ME_TRAXTOVISMAINT_01 is running long|Job Number:1128853|Job has been running for over an hour, please investigate. Action: Please check the job log to see if the job is actively running or if action is needed. Note, some jobs run long for many valid reasons. Refer to the job doc on SysDocs SharePoint site     ===== Reference =====  Trans ID: 490083  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a751d77987  Type: /Integration/TWS  Event Priority: 4  Config Item: tukvvtws12</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Batch/Job Processing</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Working as Designed</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>iws job sucess</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>490083 - Value ME_TRAXTOVISMTX.ME_TRAXTOVISMAINT_01 is running long</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2290564</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Azure Monitor Alert: Affected Resource:baggage-prod-appinsights Monitoring Rule:alertrules_reques_rate_zero-Baggage-prod-appinsights|Notes: Metric:requests/rate,Current Value:0     ===== Reference =====  Trans ID: 490084  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a76fc474ab  Type: /Integration/AppInsights  Event Priority: 5  Config Item: baggage-prod-appinsights</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>490084 - Azure Monitor Alert: Affected Resource:baggage-prod-appinsights Monitoring Rule:alertrules_reques_rate_zero-Baggage-prod-appinsight</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2290566</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Crew Calendar</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Unable to drop trips/manipulate line due to CrewAccess stability issues.    At about 0008 on 01MAR, I made an attempt to drop a trip (Trip#43454 on 26MAR). The day was showing as open throught the entirirety of this issue.    Initially, CrewAccess froze on "We're processing you're request", with no movemvement for quite some time. After refreshing, my request was added to queue, however the request would time out after almost exactly 3 minutes, resulting in a red-box "Could not execute the operation. Please try again later."    Multiple attempts were made, across multiple devices (A personal Android smartphone, and a PC laptop on Windows 11. Atempts on PC used both Chrome and Firefox), and multiple internet connections (Mobile network and home internet. Both connection were solid with no issues connecting to or using other services).    Shortly after, CrewAccess became compeltely unaccessable with a "Could not load Crew Access. Please try again later and contact your administrater if the error persists."    This error will most likely result in my inability to easily drop a trip I should have been able to drop had a system error not occuered.    Screenshots of errors are available.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ITS Service Desk</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Enterprise Applications</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Portal</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>Advice &amp; Guidance</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Seems to have been an issue with the iCargo network. Please re-create a ticket if issue reoccurs.</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>User confirmed issue is resolved</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Unable to drop trips/manipulate line due to CrewAccess stability issues.    At about 0008 on 01MAR, I made an attempt to drop a trip (Trip#4</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>The most probable root cause of the stability issues with CrewAccess preventing trip manipulation is a server-side problem, such as insufficient server capacity or a bug in the application's back-end processing logic. This led to timeouts and errors across multiple devices and networks, indicating the issue was not client-side but rather with the server handling requests, which subsequently became overwhelmed, causing the service to be inaccessible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2290567</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AS Crew Schedule Crew Access</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FA Scheduling Issues  Report of Crew Access being down and JCTE running very slowly.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ITS Crew Systems Product</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Enterprise Applications</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>IM / Chat</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Other Cause</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Hi Ankita,     Since there were no other wide spread reports this was most likely the nightly reset.    Sincerely,   Nathan McFerren</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>06/19 | SEAFF | BRF | iCargo system running extremely slow., causing heavy backups.</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Incident is closed</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>The most probable root cause is a network performance issue or congestion within the iCargo system's network infrastructure, leading to slow system response times and subsequent backups.</t>
-        </is>
-      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>11</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>FA Scheduling Issues  Report of Crew Access being down and JCTE running very slowly.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2290568</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Azure Monitor Alert: Affected Resource:crew-prod-appinsights Monitoring Rule:alertrules_request_rate_zero-Crew-prod-appinsights|Notes: Metric:requests/rate,Current Value:0     ===== Reference =====  Trans ID: 490086  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a7c9544fb5  Type: /Integration/AppInsights  Event Priority: 5  Config Item: crew-prod-appinsights</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>490086 - Azure Monitor Alert: Affected Resource:crew-prod-appinsights Monitoring Rule:alertrules_request_rate_zero-Crew-prod-appinsights</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2290569</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AS Crew Schedule Crew Access</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Issue: Unable to Log into Crew Access     Error: Internal Server Error</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ITS Service Desk</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Enterprise Applications</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Configuration Issue</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Called user   Informed user that the crew access issue has been resolved  Also, took confirmation form the user to close the ticket</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Issue: Unable to Log into Crew Access</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>The most probable root cause for the inability to log into Crew Access with an "Internal Server Error" is a malfunction or misconfiguration within the server hosting the Crew Access system, possibly due to incorrect server settings, insufficient resources, or software bugs that were later resolved before confirming the ticket closure with the user.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2290570</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AIOps</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Service Alert: InformGsRtLAXMsgBrokerAIDXMQ has changed to Stopped state     ===== Reference =====  Trans ID: 490089  Source: Zenoss  External Event ID: 0242ac11-0008-ae4b-11ee-d7a8a18fd76f  Type: /Integration/AppManager/InfraOps  Event Priority: 5  Config Item: tukvvinfrm01</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>ITS Production Operations</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>System Event</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Resolving ticket - External system event has been cleared / resolved.</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>490089 - Service Alert: InformGsRtLAXMsgBrokerAIDXMQ (InformGsRtLAXMsgBrokerAIDXMQ) has changed to Stopped state</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Incident is closed</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
